--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc24.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc24.xlsx
@@ -245,9 +245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,7 +561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,23 +780,23 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X37" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
+        <f t="shared" ref="X2" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y37" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
+        <f t="shared" ref="Y2" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z37" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
+        <f t="shared" ref="Z2" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
         <v>10</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA37" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
+        <f t="shared" ref="AA2" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB37" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
+        <f t="shared" ref="AB2" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC2" t="b">
@@ -802,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="b">
-        <f t="shared" ref="AD2:AG17" si="5">Y2=MAX($X2:$AB2)</f>
+        <f t="shared" ref="AD2:AG2" si="5">Y2=MAX($X2:$AB2)</f>
         <v>0</v>
       </c>
       <c r="AE2" t="b">
@@ -1699,11 +1701,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1824,13 +1826,13 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1960,8 +1962,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2088,11 +2090,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="19">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="19">COUNTIFS(AJ:AJ, AL12)</f>
         <v>76</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="20">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="20">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.96202531645569622</v>
       </c>
     </row>
@@ -2222,7 +2224,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2353,7 +2355,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2484,7 +2486,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2615,7 +2617,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2746,7 +2748,7 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="20"/>
         <v>1.2658227848101266E-2</v>
       </c>
@@ -2877,7 +2879,7 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="20"/>
         <v>1.2658227848101266E-2</v>
       </c>
@@ -3008,7 +3010,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3139,7 +3141,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3270,7 +3272,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3401,7 +3403,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3532,7 +3534,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3663,7 +3665,7 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="20"/>
         <v>1.2658227848101266E-2</v>
       </c>
@@ -3794,7 +3796,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3925,7 +3927,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4056,7 +4058,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4187,7 +4189,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4318,7 +4320,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4449,7 +4451,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4580,7 +4582,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4711,7 +4713,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4835,14 +4837,14 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4966,14 +4968,14 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5097,14 +5099,14 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5228,14 +5230,14 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5359,14 +5361,14 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5490,6 +5492,17 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -10282,7 +10295,7 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="AI78" s="10" t="s">
+      <c r="AI78" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ78" s="4">
